--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5745A0-A23D-418C-A29E-DCEC5E77BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1308D-394C-4D0A-BFA2-38B332386255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -87,13 +85,122 @@
   </si>
   <si>
     <t>V(со2 н рег)</t>
+  </si>
+  <si>
+    <t>M(со2 н рег)</t>
+  </si>
+  <si>
+    <t>P(co2) кг/м3</t>
+  </si>
+  <si>
+    <t>K(ов co2)</t>
+  </si>
+  <si>
+    <t>К(выд co2)</t>
+  </si>
+  <si>
+    <t>V(co2ж1ч)</t>
+  </si>
+  <si>
+    <t>V(co2ж н рег)</t>
+  </si>
+  <si>
+    <t>M(co2ж н рег)</t>
+  </si>
+  <si>
+    <t>S(др ф)</t>
+  </si>
+  <si>
+    <t>M(выд о др ф)</t>
+  </si>
+  <si>
+    <t>m(прод о др ф)</t>
+  </si>
+  <si>
+    <t>m(прод о топ)</t>
+  </si>
+  <si>
+    <t>m(прод о газ)</t>
+  </si>
+  <si>
+    <t>M(выд о топ)</t>
+  </si>
+  <si>
+    <t>M(выд о газ)</t>
+  </si>
+  <si>
+    <t>M(выд о)</t>
+  </si>
+  <si>
+    <t>m(погл co2 др ф)</t>
+  </si>
+  <si>
+    <t>m(погл co2 топ)</t>
+  </si>
+  <si>
+    <t>m(погл co2 газ)</t>
+  </si>
+  <si>
+    <t>M(погл co2 др ф)</t>
+  </si>
+  <si>
+    <t>M(погл co2 топ)</t>
+  </si>
+  <si>
+    <t>M(погл co2 газ)</t>
+  </si>
+  <si>
+    <t>O(o)</t>
+  </si>
+  <si>
+    <t>Б(о2)</t>
+  </si>
+  <si>
+    <t>Б(co2)</t>
+  </si>
+  <si>
+    <t>M(погл о)</t>
+  </si>
+  <si>
+    <t>M(нехв о)</t>
+  </si>
+  <si>
+    <t>K(д)</t>
+  </si>
+  <si>
+    <t>S(топ)</t>
+  </si>
+  <si>
+    <t>S(об дер)</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>N(дер)</t>
+  </si>
+  <si>
+    <t>S(куст)</t>
+  </si>
+  <si>
+    <t>S(газ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +226,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,18 +515,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +551,28 @@
       <c r="H1">
         <v>1.429</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1">
+        <f>12.5/10000</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1">
+        <f>16.5/10000</f>
+        <v>1.65E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,16 +586,63 @@
       <c r="E2">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <f>34.9/10000</f>
+        <v>3.49E-3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2">
+        <f>46.2/10000</f>
+        <v>4.62E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <f>SUM(K1:K2)</f>
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <f>7.5/10000</f>
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <f>10/10000</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -473,8 +656,14 @@
       <c r="E4">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -482,8 +671,28 @@
         <f>B4*E1</f>
         <v>52475.904000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -492,7 +701,7 @@
         <v>74988.066816000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -501,7 +710,7 @@
         <v>74.988066816</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -510,7 +719,7 @@
         <v>4.4000000000000021</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -519,7 +728,7 @@
         <v>2623.7952</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -528,7 +737,7 @@
         <v>52475.904000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -537,7 +746,7 @@
         <v>74988.066816000006</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -546,13 +755,166 @@
         <v>4.7934719999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <f>B17*E1</f>
         <v>95.869439999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>B18*H2</f>
+        <v>189.53388287999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>E5-E4</f>
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>B2*B22/100</f>
+        <v>499.78252800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f>B24*E1</f>
+        <v>9995.65056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f>B25*H2</f>
+        <v>19761.401157120003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>N1*$K$1</f>
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f>Q1*$K$1</f>
+        <v>5.7750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B31" si="0">N2*$K$1</f>
+        <v>0.12215000000000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="1">Q2*$K$1</f>
+        <v>0.16170000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>N3*$K$1</f>
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <f>Q3*$K$1</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B29:B31)</f>
+        <v>0.19215000000000002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E29:E31)</f>
+        <v>0.25445000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <f>(B32/B20)</f>
+        <v>1.0138028994090538E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <f>(B32/B8)</f>
+        <v>2.5624077024346157E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <f>E32/B20</f>
+        <v>1.3425040216218252E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <f>B15-B32</f>
+        <v>74987.874666000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1308D-394C-4D0A-BFA2-38B332386255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A104CF-11B7-41AB-B31D-91E9A857CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -165,18 +165,12 @@
     <t>M(нехв о)</t>
   </si>
   <si>
-    <t>K(д)</t>
-  </si>
-  <si>
     <t>S(топ)</t>
   </si>
   <si>
     <t>S(об дер)</t>
   </si>
   <si>
-    <t>(</t>
-  </si>
-  <si>
     <t>N(дер)</t>
   </si>
   <si>
@@ -184,6 +178,27 @@
   </si>
   <si>
     <t>S(газ)</t>
+  </si>
+  <si>
+    <t>S(зел нас треб доп)</t>
+  </si>
+  <si>
+    <t>S(д1)</t>
+  </si>
+  <si>
+    <t>К(д)</t>
+  </si>
+  <si>
+    <t>S(зел нас факт)</t>
+  </si>
+  <si>
+    <t>S(зел нас треб)</t>
+  </si>
+  <si>
+    <t>S(зел нас факт/чел)</t>
+  </si>
+  <si>
+    <t>S(зел нас треб/чел)</t>
   </si>
 </sst>
 </file>
@@ -515,16 +530,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -593,7 +608,7 @@
         <v>1.9770000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>20</v>
@@ -621,7 +636,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <f>SUM(K1:K2)</f>
@@ -657,7 +672,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -678,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -686,7 +701,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -830,7 +845,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B31" si="0">N2*$K$1</f>
+        <f t="shared" ref="B30" si="0">N2*$K$1</f>
         <v>0.12215000000000001</v>
       </c>
       <c r="D30" t="s">
@@ -873,7 +888,7 @@
         <v>0.25445000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -882,7 +897,7 @@
         <v>1.0138028994090538E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -891,7 +906,7 @@
         <v>2.5624077024346157E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -900,7 +915,7 @@
         <v>1.3425040216218252E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -909,12 +924,63 @@
         <v>74987.874666000003</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <f>B39/N3</f>
+        <v>99983832.887999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <f>K3/E6</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <f>B46/B42</f>
+        <v>54536696.120727271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <f>K3+K4+K5</f>
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <f>B45/E1</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <f>B45+B40</f>
+        <v>99983942.887999997</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <f>B46/E1</f>
+        <v>4999197.1443999996</v>
       </c>
     </row>
   </sheetData>

--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A104CF-11B7-41AB-B31D-91E9A857CF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D779D43-6BEE-4070-812F-AACEAAF62D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -75,9 +75,6 @@
     <t>К(выд о)</t>
   </si>
   <si>
-    <t>М(ож н рег)</t>
-  </si>
-  <si>
     <t>V(со2 в)</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>V(со2 н рег)</t>
   </si>
   <si>
-    <t>M(со2 н рег)</t>
-  </si>
-  <si>
     <t>P(co2) кг/м3</t>
   </si>
   <si>
@@ -105,24 +99,12 @@
     <t>V(co2ж н рег)</t>
   </si>
   <si>
-    <t>M(co2ж н рег)</t>
-  </si>
-  <si>
     <t>S(др ф)</t>
   </si>
   <si>
     <t>M(выд о др ф)</t>
   </si>
   <si>
-    <t>m(прод о др ф)</t>
-  </si>
-  <si>
-    <t>m(прод о топ)</t>
-  </si>
-  <si>
-    <t>m(прод о газ)</t>
-  </si>
-  <si>
     <t>M(выд о топ)</t>
   </si>
   <si>
@@ -132,15 +114,6 @@
     <t>M(выд о)</t>
   </si>
   <si>
-    <t>m(погл co2 др ф)</t>
-  </si>
-  <si>
-    <t>m(погл co2 топ)</t>
-  </si>
-  <si>
-    <t>m(погл co2 газ)</t>
-  </si>
-  <si>
     <t>M(погл co2 др ф)</t>
   </si>
   <si>
@@ -199,6 +172,42 @@
   </si>
   <si>
     <t>S(зел нас треб/чел)</t>
+  </si>
+  <si>
+    <t>М(ож н рег), т</t>
+  </si>
+  <si>
+    <t>Минимальное количество кислорода</t>
+  </si>
+  <si>
+    <t>M(co2ж н рег), т</t>
+  </si>
+  <si>
+    <t>M(со2 н рег), т</t>
+  </si>
+  <si>
+    <t>Это количество углекислого газа, создаваемого в процессе жизнедеятельности людей - физиологический вклад населения. Этот результат зафиксировать в выводе.</t>
+  </si>
+  <si>
+    <t>Этот результат зафиксировать в выводе, как физиологически комфортную концентрацию СО2.</t>
+  </si>
+  <si>
+    <t>m(прод о газ), т/га</t>
+  </si>
+  <si>
+    <t>m(погл co2 др ф), т/га</t>
+  </si>
+  <si>
+    <t>m(погл co2 топ), т/га</t>
+  </si>
+  <si>
+    <t>m(погл co2 газ), т/га</t>
+  </si>
+  <si>
+    <t>m(прод о топ), т/м3</t>
+  </si>
+  <si>
+    <t>m(прод о др ф), т/м2</t>
   </si>
 </sst>
 </file>
@@ -206,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,16 +232,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -240,15 +273,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,458 +586,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="6">
         <f>4*0.3*20*60*24*365</f>
         <v>12614400</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="6">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="6">
         <v>1.429</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1">
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1">
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="6">
         <f>12.5/10000</f>
         <v>1.25E-3</v>
       </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1">
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="6">
         <f>16.5/10000</f>
         <v>1.65E-3</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <f>B1/1000</f>
         <v>12614.4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>20.8</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6">
         <v>1.9770000000000001</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6">
         <f>34.9/10000</f>
         <v>3.49E-3</v>
       </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="6">
         <f>46.2/10000</f>
         <v>4.62E-3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
         <f>SUM(K1:K2)</f>
         <v>55</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="6">
         <f>7.5/10000</f>
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="6">
         <f>10/10000</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <f>(B2*20.8)/100</f>
         <v>2623.7952</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <f>B4*E1</f>
         <v>52475.904000000002</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f>B5*H1</f>
         <v>74988.066816000006</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <f>B7/1000</f>
         <v>74.988066816</v>
       </c>
+      <c r="M8" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <f>E2-E3</f>
         <v>4.4000000000000021</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <f>B2*E2/100</f>
         <v>2623.7952</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <f>B12*E1</f>
         <v>52475.904000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6">
+        <f>B13*H1/1000</f>
+        <v>74.988066816</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <f>B13*H1</f>
-        <v>74988.066816000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <f>B2*E4/100</f>
         <v>4.7934719999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
         <f>B17*E1</f>
         <v>95.869439999999997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B18*H2/1000</f>
+        <v>0.18953388288</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <f>B18*H2</f>
-        <v>189.53388287999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <f>E5-E4</f>
         <v>3.9620000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
         <f>B2*B22/100</f>
         <v>499.78252800000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
         <f>B24*E1</f>
         <v>9995.65056</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <f>B25*H2</f>
-        <v>19761.401157120003</v>
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6">
+        <f>B25*H2/1000</f>
+        <v>19.761401157120002</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
         <f>N1*$K$1</f>
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1">
         <f>Q1*$K$1</f>
         <v>5.7750000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" ref="B30" si="0">N2*$K$1</f>
         <v>0.12215000000000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" ref="E30" si="1">Q2*$K$1</f>
         <v>0.16170000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
         <f>N3*$K$1</f>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
         <f>Q3*$K$1</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
         <f>SUM(B29:B31)</f>
         <v>0.19215000000000002</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1">
         <f>SUM(E29:E31)</f>
         <v>0.25445000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
+      <c r="A34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="2">
         <f>(B32/B20)</f>
-        <v>1.0138028994090538E-3</v>
+        <v>1.0138028994090538</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3">
         <f>(B32/B8)</f>
         <v>2.5624077024346157E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3">
+        <f>E32/B20</f>
+        <v>1.3425040216218251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B15-B32</f>
+        <v>74.795916816000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B39/N3</f>
+        <v>99727.889087999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1">
-        <f>E32/B20</f>
-        <v>1.3425040216218252E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <f>B15-B32</f>
-        <v>74987.874666000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <f>B39/N3</f>
-        <v>99983832.887999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <f>K3/E6</f>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
         <f>B46/B42</f>
-        <v>54536696.120727271</v>
+        <v>54457.030411636362</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1">
         <f>K3+K4+K5</f>
         <v>110</v>
       </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1">
         <f>B45/E1</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1">
         <f>B45+B40</f>
-        <v>99983942.887999997</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46">
+        <v>99837.889087999996</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1">
         <f>B46/E1</f>
-        <v>4999197.1443999996</v>
+        <v>4991.8944543999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D779D43-6BEE-4070-812F-AACEAAF62D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55B9C1-6BBC-4D31-AABC-ACC92B63B37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Б(co2)</t>
   </si>
   <si>
-    <t>M(погл о)</t>
-  </si>
-  <si>
     <t>M(нехв о)</t>
   </si>
   <si>
@@ -192,22 +189,28 @@
     <t>Этот результат зафиксировать в выводе, как физиологически комфортную концентрацию СО2.</t>
   </si>
   <si>
-    <t>m(прод о газ), т/га</t>
-  </si>
-  <si>
-    <t>m(погл co2 др ф), т/га</t>
-  </si>
-  <si>
-    <t>m(погл co2 топ), т/га</t>
-  </si>
-  <si>
-    <t>m(погл co2 газ), т/га</t>
-  </si>
-  <si>
-    <t>m(прод о топ), т/м3</t>
-  </si>
-  <si>
     <t>m(прод о др ф), т/м2</t>
+  </si>
+  <si>
+    <t>m(прод о топ), т/м2</t>
+  </si>
+  <si>
+    <t>m(прод о газ), т/м2</t>
+  </si>
+  <si>
+    <t>m(погл co2 др ф), т/м2</t>
+  </si>
+  <si>
+    <t>m(погл co2 топ), т/м2</t>
+  </si>
+  <si>
+    <t>m(погл co2 газ), т/м2</t>
+  </si>
+  <si>
+    <t>оптимальное количество для стабильной работы организма</t>
+  </si>
+  <si>
+    <t>M(погл со2)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -303,6 +306,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -319,6 +323,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175461</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1344802</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>39631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE44EA3F-B28A-BD79-1AB5-04F7F8379C00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6329112" y="5439277"/>
+          <a:ext cx="6984604" cy="5127986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,17 +678,17 @@
         <v>21</v>
       </c>
       <c r="K1" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N1" s="6">
         <f>12.5/10000</f>
         <v>1.25E-3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="6">
         <f>16.5/10000</f>
@@ -663,20 +716,20 @@
         <v>1.9770000000000001</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N2" s="6">
         <f>34.9/10000</f>
         <v>3.49E-3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="6">
         <f>46.2/10000</f>
@@ -691,21 +744,21 @@
         <v>16.399999999999999</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1">
         <f>SUM(K1:K2)</f>
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="6">
         <f>7.5/10000</f>
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="6">
         <f>10/10000</f>
@@ -727,10 +780,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -748,15 +801,15 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6">
         <v>30</v>
@@ -779,6 +832,9 @@
         <f>B7/1000</f>
         <v>74.988066816</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="M8" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -810,14 +866,14 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6">
         <f>B13*H1/1000</f>
         <v>74.988066816</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,14 +896,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6">
         <f>B18*H2/1000</f>
         <v>0.18953388288</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,14 +935,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6">
         <f>B25*H2/1000</f>
         <v>19.761401157120002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,14 +951,14 @@
       </c>
       <c r="B29" s="1">
         <f>N1*$K$1</f>
-        <v>4.3750000000000004E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="1">
         <f>Q1*$K$1</f>
-        <v>5.7750000000000003E-2</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,14 +967,14 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30" si="0">N2*$K$1</f>
-        <v>0.12215000000000001</v>
+        <v>0.25128</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ref="E30" si="1">Q2*$K$1</f>
-        <v>0.16170000000000001</v>
+        <v>0.33263999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,14 +983,14 @@
       </c>
       <c r="B31" s="1">
         <f>N3*$K$1</f>
-        <v>2.6249999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="1">
         <f>Q3*$K$1</f>
-        <v>3.5000000000000003E-2</v>
+        <v>7.2000000000000008E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,14 +999,14 @@
       </c>
       <c r="B32" s="1">
         <f>SUM(B29:B31)</f>
-        <v>0.19215000000000002</v>
+        <v>0.39528000000000002</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1">
         <f>SUM(E29:E31)</f>
-        <v>0.25445000000000001</v>
+        <v>0.52344000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,7 +1015,7 @@
       </c>
       <c r="B34" s="2">
         <f>(B32/B20)</f>
-        <v>1.0138028994090538</v>
+        <v>2.0855373930700534</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +1024,7 @@
       </c>
       <c r="B36" s="3">
         <f>(B32/B8)</f>
-        <v>2.5624077024346157E-3</v>
+        <v>5.2712387021512097E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,79 +1033,80 @@
       </c>
       <c r="B37" s="3">
         <f>E32/B20</f>
-        <v>1.3425040216218251</v>
+        <v>2.7617225587648977</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <f>B15-B32</f>
-        <v>74.795916816000002</v>
+        <v>74.592786816</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <f>B39/N3</f>
-        <v>99727.889087999996</v>
+        <f>B39/B32</f>
+        <v>188.7087300546448</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <f>K3/E6</f>
-        <v>1.8333333333333333</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <f>B46/B42</f>
-        <v>54457.030411636362</v>
+        <v>95.050909769425559</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <f>K3+K4+K5</f>
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1">
         <f>B45/E1</f>
-        <v>5.5</v>
+        <v>10.050000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <f>B45+B40</f>
-        <v>99837.889087999996</v>
+        <v>389.70873005464478</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="1">
         <f>B46/E1</f>
-        <v>4991.8944543999996</v>
+        <v>19.485436502732238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Дима/Лаб1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55B9C1-6BBC-4D31-AABC-ACC92B63B37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C6E85-B5AC-4E41-9400-F9397A1522D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>M(погл со2)</t>
+  </si>
+  <si>
+    <t>Вывод</t>
+  </si>
+  <si>
+    <t>Баланс кислорода слишком мал. Необходимо большее количество зелёных насаждений для выработки кислорода и поглощения углекислого газа</t>
   </si>
 </sst>
 </file>
@@ -330,15 +336,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175461</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175461</xdr:rowOff>
+      <xdr:colOff>288122</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1344802</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>39631</xdr:rowOff>
+      <xdr:colOff>1457463</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -361,8 +367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6329112" y="5439277"/>
-          <a:ext cx="6984604" cy="5127986"/>
+          <a:off x="6443525" y="5798284"/>
+          <a:ext cx="6986761" cy="5312879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="61" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,8 +1020,8 @@
         <v>29</v>
       </c>
       <c r="B34" s="2">
-        <f>(B32/B20)</f>
-        <v>2.0855373930700534</v>
+        <f>(B32/B15)*100</f>
+        <v>0.52712387021512097</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,8 +1029,8 @@
         <v>30</v>
       </c>
       <c r="B36" s="3">
-        <f>(B32/B8)</f>
-        <v>5.2712387021512097E-3</v>
+        <f>(B32/B8)*100</f>
+        <v>0.52712387021512097</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,6 +1108,14 @@
       <c r="E46" s="1">
         <f>B46/E1</f>
         <v>19.485436502732238</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
